--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.8164153811361</v>
+        <v>268.3890113448905</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.3402259583538</v>
+        <v>367.2216858096012</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.7217903582232</v>
+        <v>332.1745635148051</v>
       </c>
       <c r="AD2" t="n">
-        <v>226816.4153811361</v>
+        <v>268389.0113448906</v>
       </c>
       <c r="AE2" t="n">
-        <v>310340.2259583538</v>
+        <v>367221.6858096012</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06333956252926e-06</v>
+        <v>5.178727521727433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>280721.7903582232</v>
+        <v>332174.5635148051</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.5960832080179</v>
+        <v>140.3398002711587</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.6366372519543</v>
+        <v>192.0191060859382</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.0193862581358</v>
+        <v>173.6930721016585</v>
       </c>
       <c r="AD3" t="n">
-        <v>119596.0832080179</v>
+        <v>140339.8002711587</v>
       </c>
       <c r="AE3" t="n">
-        <v>163636.6372519543</v>
+        <v>192019.1060859382</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.607520392296753e-06</v>
+        <v>7.789241830835936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.396701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>148019.3862581358</v>
+        <v>173693.0721016585</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.6515699758505</v>
+        <v>140.3952870389913</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.7125566956063</v>
+        <v>192.0950255295902</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.0880600566393</v>
+        <v>173.761745900162</v>
       </c>
       <c r="AD4" t="n">
-        <v>119651.5699758505</v>
+        <v>140395.2870389913</v>
       </c>
       <c r="AE4" t="n">
-        <v>163712.5566956063</v>
+        <v>192095.0255295902</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.61368255051458e-06</v>
+        <v>7.799659265046056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>148088.0600566393</v>
+        <v>173761.745900162</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8190567002233</v>
+        <v>188.9201680312111</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3032399794282</v>
+        <v>258.4889084697738</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.5641237428667</v>
+        <v>233.8190898369555</v>
       </c>
       <c r="AD2" t="n">
-        <v>158819.0567002233</v>
+        <v>188920.1680312111</v>
       </c>
       <c r="AE2" t="n">
-        <v>217303.2399794282</v>
+        <v>258488.9084697738</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.819487655545966e-06</v>
+        <v>6.614554375067192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>196564.1237428667</v>
+        <v>233819.0898369555</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.5373579082451</v>
+        <v>134.6332422499445</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.7150661215994</v>
+        <v>184.2111416457451</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.7584001619737</v>
+        <v>166.630288829088</v>
       </c>
       <c r="AD3" t="n">
-        <v>114537.3579082451</v>
+        <v>134633.2422499445</v>
       </c>
       <c r="AE3" t="n">
-        <v>156715.0661215994</v>
+        <v>184211.1416457451</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670022699034088e-06</v>
+        <v>8.087503314929164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>141758.4001619737</v>
+        <v>166630.288829088</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.9841272345888</v>
+        <v>147.1596318721423</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.1675762084026</v>
+        <v>201.3503005521353</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.4996531457584</v>
+        <v>182.1337104644184</v>
       </c>
       <c r="AD2" t="n">
-        <v>119984.1272345888</v>
+        <v>147159.6318721423</v>
       </c>
       <c r="AE2" t="n">
-        <v>164167.5762084026</v>
+        <v>201350.3005521353</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.368043142009869e-06</v>
+        <v>8.265277582661365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.353732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>148499.6531457584</v>
+        <v>182133.7104644184</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9159349863328</v>
+        <v>138.3204864686782</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.3918313970522</v>
+        <v>189.2561918555483</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0386460848195</v>
+        <v>171.1938465276416</v>
       </c>
       <c r="AD2" t="n">
-        <v>109915.9349863328</v>
+        <v>138320.4864686782</v>
       </c>
       <c r="AE2" t="n">
-        <v>150391.8313970522</v>
+        <v>189256.1918555482</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.592221860385803e-06</v>
+        <v>8.366030914850353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.871961805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>136038.6460848195</v>
+        <v>171193.8465276416</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2850655609111</v>
+        <v>159.6077641160922</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3665068224528</v>
+        <v>218.3823842611349</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9617033643688</v>
+        <v>197.5402760089161</v>
       </c>
       <c r="AD2" t="n">
-        <v>133285.0655609111</v>
+        <v>159607.7641160922</v>
       </c>
       <c r="AE2" t="n">
-        <v>182366.5068224528</v>
+        <v>218382.3842611349</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.033212337952537e-06</v>
+        <v>7.903796679485473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.022135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164961.7033643688</v>
+        <v>197540.2760089161</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9961194392504</v>
+        <v>201.5232389092983</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9644344330501</v>
+        <v>275.73298605341</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6351971819735</v>
+        <v>249.4174168582299</v>
       </c>
       <c r="AD2" t="n">
-        <v>170996.1194392504</v>
+        <v>201523.2389092983</v>
       </c>
       <c r="AE2" t="n">
-        <v>233964.43443305</v>
+        <v>275732.98605341</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.618532030619269e-06</v>
+        <v>6.225616356654881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.740017361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>211635.1971819735</v>
+        <v>249417.4168582299</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.9042168317054</v>
+        <v>136.1703784657167</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.5852628022366</v>
+        <v>186.3143192298273</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.450107896249</v>
+        <v>168.5327420963743</v>
       </c>
       <c r="AD3" t="n">
-        <v>115904.2168317054</v>
+        <v>136170.3784657167</v>
       </c>
       <c r="AE3" t="n">
-        <v>158585.2628022366</v>
+        <v>186314.3192298273</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.649800258793324e-06</v>
+        <v>7.999893962902887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.468315972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>143450.107896249</v>
+        <v>168532.7420963743</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7253013770013</v>
+        <v>163.6630686803364</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.4418333554032</v>
+        <v>223.9310308733418</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.4572092597908</v>
+        <v>202.5593675760302</v>
       </c>
       <c r="AD2" t="n">
-        <v>137725.3013770013</v>
+        <v>163663.0686803364</v>
       </c>
       <c r="AE2" t="n">
-        <v>188441.8333554032</v>
+        <v>223931.0308733418</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.76782472829913e-06</v>
+        <v>7.553208938818026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>170457.2092597908</v>
+        <v>202559.3675760301</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.787043535505</v>
+        <v>147.1444579138778</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.1614293628258</v>
+        <v>201.32953887301</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.7804087359688</v>
+        <v>182.1149302508097</v>
       </c>
       <c r="AD2" t="n">
-        <v>117787.043535505</v>
+        <v>147144.4579138778</v>
       </c>
       <c r="AE2" t="n">
-        <v>161161.4293628258</v>
+        <v>201329.53887301</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.468846477133986e-06</v>
+        <v>7.914659177132006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.832899305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>145780.4087359688</v>
+        <v>182114.9302508097</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.905979787666</v>
+        <v>141.2633941660388</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.1146984888153</v>
+        <v>193.2828079989996</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.5016465629136</v>
+        <v>174.8361680777545</v>
       </c>
       <c r="AD3" t="n">
-        <v>111905.979787666</v>
+        <v>141263.3941660388</v>
       </c>
       <c r="AE3" t="n">
-        <v>153114.6984888153</v>
+        <v>193282.8079989996</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.666579524321845e-06</v>
+        <v>8.264859096631445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>138501.6465629136</v>
+        <v>174836.1680777545</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.8790230824271</v>
+        <v>166.8834959786291</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.966359226461</v>
+        <v>228.3373615780889</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.7864119600013</v>
+        <v>206.5451642626416</v>
       </c>
       <c r="AD2" t="n">
-        <v>146879.0230824271</v>
+        <v>166883.4959786291</v>
       </c>
       <c r="AE2" t="n">
-        <v>200966.359226461</v>
+        <v>228337.3615780889</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039950375369068e-06</v>
+        <v>7.045320689391231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.238715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>181786.4119600013</v>
+        <v>206545.1642626416</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.6076347271559</v>
+        <v>133.6973589693785</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.4429778487419</v>
+        <v>182.930624853019</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.6077182084902</v>
+        <v>165.4719827618427</v>
       </c>
       <c r="AD3" t="n">
-        <v>113607.6347271559</v>
+        <v>133697.3589693785</v>
       </c>
       <c r="AE3" t="n">
-        <v>155442.9778487419</v>
+        <v>182930.624853019</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.667091390341647e-06</v>
+        <v>8.138999858048962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.533420138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>140607.7182084901</v>
+        <v>165471.9827618427</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.0630645219784</v>
+        <v>240.9900891475055</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.4175522071894</v>
+        <v>329.733271703846</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.9868244176878</v>
+        <v>298.2639910360823</v>
       </c>
       <c r="AD2" t="n">
-        <v>210063.0645219784</v>
+        <v>240990.0891475055</v>
       </c>
       <c r="AE2" t="n">
-        <v>287417.5522071894</v>
+        <v>329733.2717038459</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.239819542992251e-06</v>
+        <v>5.507478499579668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.304253472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>259986.8244176878</v>
+        <v>298263.9910360823</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.1076512143827</v>
+        <v>138.6972505160606</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.6000989332786</v>
+        <v>189.7716970468333</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.1772122982944</v>
+        <v>171.6601526269866</v>
       </c>
       <c r="AD3" t="n">
-        <v>118107.6512143827</v>
+        <v>138697.2505160606</v>
       </c>
       <c r="AE3" t="n">
-        <v>161600.0989332786</v>
+        <v>189771.6970468333</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.633341924200276e-06</v>
+        <v>7.876374190016158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146177.2122982944</v>
+        <v>171660.1526269866</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.4831056481242</v>
+        <v>139.072704949802</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.1138122534039</v>
+        <v>190.2854103669586</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.6418975401483</v>
+        <v>172.1248378688406</v>
       </c>
       <c r="AD4" t="n">
-        <v>118483.1056481242</v>
+        <v>139072.704949802</v>
       </c>
       <c r="AE4" t="n">
-        <v>162113.8122534039</v>
+        <v>190285.4103669586</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.631177338884697e-06</v>
+        <v>7.872694538440549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>146641.8975401483</v>
+        <v>172124.8378688406</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4317763473346</v>
+        <v>139.1708745762245</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0976283044891</v>
+        <v>190.4197303807681</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6770827260031</v>
+        <v>172.2463385690514</v>
       </c>
       <c r="AD2" t="n">
-        <v>110431.7763473346</v>
+        <v>139170.8745762245</v>
       </c>
       <c r="AE2" t="n">
-        <v>151097.6283044891</v>
+        <v>190419.7303807681</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.620171331601947e-06</v>
+        <v>8.331262227956411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>136677.0827260031</v>
+        <v>172246.3385690514</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8380913385092</v>
+        <v>139.5771895673992</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.6535664007663</v>
+        <v>190.9756684770452</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1799628706358</v>
+        <v>172.7492187136841</v>
       </c>
       <c r="AD3" t="n">
-        <v>110838.0913385092</v>
+        <v>139577.1895673992</v>
       </c>
       <c r="AE3" t="n">
-        <v>151653.5664007663</v>
+        <v>190975.6684770453</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.621189483863308e-06</v>
+        <v>8.333098197419136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.780815972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>137179.9628706358</v>
+        <v>172749.2187136841</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.5003515752925</v>
+        <v>138.0038820827958</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.505653008678</v>
+        <v>188.8229997671845</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.9009029672002</v>
+        <v>170.8019976842022</v>
       </c>
       <c r="AD2" t="n">
-        <v>119500.3515752925</v>
+        <v>138003.8820827958</v>
       </c>
       <c r="AE2" t="n">
-        <v>163505.653008678</v>
+        <v>188822.9997671845</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462378366157897e-06</v>
+        <v>8.325371664412177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.158420138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>147900.9029672002</v>
+        <v>170801.9976842022</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6227735044213</v>
+        <v>148.523241443899</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4096443267577</v>
+        <v>203.2160513264205</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5277414296607</v>
+        <v>183.821396603404</v>
       </c>
       <c r="AD2" t="n">
-        <v>121622.7735044213</v>
+        <v>148523.241443899</v>
       </c>
       <c r="AE2" t="n">
-        <v>166409.6443267577</v>
+        <v>203216.0513264204</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.224453758339168e-06</v>
+        <v>8.123781235272379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.635850694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>150527.7414296607</v>
+        <v>183821.396603404</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.6638738295424</v>
+        <v>190.2721408299525</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.3544236958062</v>
+        <v>260.3387372978412</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.8967383466629</v>
+        <v>235.4923735979238</v>
       </c>
       <c r="AD2" t="n">
-        <v>156663.8738295424</v>
+        <v>190272.1408299525</v>
       </c>
       <c r="AE2" t="n">
-        <v>214354.4236958062</v>
+        <v>260338.7372978412</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.33856861621128e-06</v>
+        <v>6.886129362120336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.654079861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>193896.738346663</v>
+        <v>235492.3735979238</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.1789640183551</v>
+        <v>155.9995054672807</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.326066361715</v>
+        <v>213.4454055926966</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.543368098482</v>
+        <v>193.0744756554989</v>
       </c>
       <c r="AD2" t="n">
-        <v>136178.9640183552</v>
+        <v>155999.5054672807</v>
       </c>
       <c r="AE2" t="n">
-        <v>186326.066361715</v>
+        <v>213445.4055926966</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267780204953856e-06</v>
+        <v>7.498321465667548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168543.368098482</v>
+        <v>193074.4756554989</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.7259930588699</v>
+        <v>132.631785853816</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.2366768229082</v>
+        <v>181.472660706539</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.5165448595075</v>
+        <v>164.1531646672368</v>
       </c>
       <c r="AD3" t="n">
-        <v>112725.9930588699</v>
+        <v>132631.785853816</v>
       </c>
       <c r="AE3" t="n">
-        <v>154236.6768229082</v>
+        <v>181472.660706539</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670549622976406e-06</v>
+        <v>8.205971444775494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>139516.5448595076</v>
+        <v>164153.1646672368</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.7136288691504</v>
+        <v>225.4020978403761</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.4157771776918</v>
+        <v>308.4050943038008</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.9894293208225</v>
+        <v>278.9713449528057</v>
       </c>
       <c r="AD2" t="n">
-        <v>194713.6288691504</v>
+        <v>225402.0978403761</v>
       </c>
       <c r="AE2" t="n">
-        <v>266415.7771776918</v>
+        <v>308405.0943038007</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42951305822691e-06</v>
+        <v>5.864085136417334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.004774305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>240989.4293208225</v>
+        <v>278971.3449528057</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.6625961723214</v>
+        <v>137.0931583711317</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.6229108734022</v>
+        <v>187.5769074065917</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.3887242918511</v>
+        <v>169.6748306296025</v>
       </c>
       <c r="AD3" t="n">
-        <v>116662.5961723214</v>
+        <v>137093.1583711317</v>
       </c>
       <c r="AE3" t="n">
-        <v>159622.9108734022</v>
+        <v>187576.9074065918</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653471537059525e-06</v>
+        <v>7.956917734356206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.424913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>144388.7242918511</v>
+        <v>169674.8306296025</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.2257858779176</v>
+        <v>234.9154282116533</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.7482888749736</v>
+        <v>321.4216526162908</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.3856451648898</v>
+        <v>290.7456212088102</v>
       </c>
       <c r="AD2" t="n">
-        <v>194225.7858779176</v>
+        <v>234915.4282116533</v>
       </c>
       <c r="AE2" t="n">
-        <v>265748.2888749737</v>
+        <v>321421.6526162908</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68512604866085e-06</v>
+        <v>5.755461865725924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.854600694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>240385.6451648898</v>
+        <v>290745.6212088102</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.3859265664675</v>
+        <v>138.1425040251771</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.3490916635286</v>
+        <v>189.0126684243189</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.7592836170965</v>
+        <v>170.9735646309014</v>
       </c>
       <c r="AD2" t="n">
-        <v>119385.9265664675</v>
+        <v>138142.5040251771</v>
       </c>
       <c r="AE2" t="n">
-        <v>163349.0916635286</v>
+        <v>189012.6684243189</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.53508212484101e-06</v>
+        <v>8.355582856175778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.002170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>147759.2836170965</v>
+        <v>170973.5646309014</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.4838452785061</v>
+        <v>141.5397971466412</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.9053595470085</v>
+        <v>193.6609947510985</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.216848039413</v>
+        <v>175.1782612170217</v>
       </c>
       <c r="AD2" t="n">
-        <v>112483.8452785061</v>
+        <v>141539.7971466412</v>
       </c>
       <c r="AE2" t="n">
-        <v>153905.3595470086</v>
+        <v>193660.9947510985</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.591907655395011e-06</v>
+        <v>8.203107916837939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.754774305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>139216.848039413</v>
+        <v>175178.2612170216</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.0925717022323</v>
+        <v>140.1485235703675</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.0017576612934</v>
+        <v>191.7573928653834</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.4949232459478</v>
+        <v>173.4563364235565</v>
       </c>
       <c r="AD3" t="n">
-        <v>111092.5717022324</v>
+        <v>140148.5235703675</v>
       </c>
       <c r="AE3" t="n">
-        <v>152001.7576612934</v>
+        <v>191757.3928653834</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.651174306189963e-06</v>
+        <v>8.308983463304853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>137494.9232459478</v>
+        <v>173456.3364235565</v>
       </c>
     </row>
   </sheetData>
